--- a/script/Pr_temp_spreadsheets/05_00_ARC05_6.xlsx
+++ b/script/Pr_temp_spreadsheets/05_00_ARC05_6.xlsx
@@ -542,7 +542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a1047e56-2795-4de4-8d55-5b079e757af0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cc815438-cb6f-41ab-9096-9cc56099f79c}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -664,7 +664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16f2d617-8545-4458-85a6-9e9e146f970e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65e4886c-0944-4586-9f06-878f4f252886}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
